--- a/用例数据/深A/DVP改革/转处置冻结（T+1日）/测试结果.xlsx
+++ b/用例数据/深A/DVP改革/转处置冻结（T+1日）/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="328">
   <si>
     <t>EXCHID</t>
   </si>
@@ -884,15 +884,9 @@
     <t>OTHERFEE4</t>
   </si>
   <si>
-    <t>30000147</t>
-  </si>
-  <si>
     <t>005_004_113</t>
   </si>
   <si>
-    <t>20221103164433</t>
-  </si>
-  <si>
     <t>CCB1</t>
   </si>
   <si>
@@ -902,12 +896,6 @@
     <t>DJBG</t>
   </si>
   <si>
-    <t>20221103000000</t>
-  </si>
-  <si>
-    <t>10000000.000</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -926,9 +914,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>000007014957</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -941,67 +926,85 @@
     <t>1.0000000000</t>
   </si>
   <si>
-    <t>30000148</t>
-  </si>
-  <si>
-    <t>000007014958</t>
-  </si>
-  <si>
-    <t>30000135</t>
-  </si>
-  <si>
-    <t>7126173.610</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
-    <t>000007014945</t>
-  </si>
-  <si>
-    <t>30000146</t>
-  </si>
-  <si>
-    <t>000007014956</t>
-  </si>
-  <si>
-    <t>30000144</t>
-  </si>
-  <si>
-    <t>000007014954</t>
-  </si>
-  <si>
-    <t>30000143</t>
-  </si>
-  <si>
-    <t>11803331.670</t>
-  </si>
-  <si>
-    <t>000007014953</t>
-  </si>
-  <si>
-    <t>30000145</t>
-  </si>
-  <si>
-    <t>000007014955</t>
-  </si>
-  <si>
-    <t>30000134</t>
-  </si>
-  <si>
-    <t>000007014944</t>
-  </si>
-  <si>
-    <t>30000132</t>
-  </si>
-  <si>
-    <t>000007014942</t>
-  </si>
-  <si>
-    <t>30000133</t>
-  </si>
-  <si>
-    <t>000007014943</t>
+    <t>30150182</t>
+  </si>
+  <si>
+    <t>20221206171215</t>
+  </si>
+  <si>
+    <t>20221206000000</t>
+  </si>
+  <si>
+    <t>19776302.720</t>
+  </si>
+  <si>
+    <t>000007074970</t>
+  </si>
+  <si>
+    <t>30150185</t>
+  </si>
+  <si>
+    <t>000007074973</t>
+  </si>
+  <si>
+    <t>30150183</t>
+  </si>
+  <si>
+    <t>-167782859.530</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>000007074971</t>
+  </si>
+  <si>
+    <t>30150184</t>
+  </si>
+  <si>
+    <t>000007074972</t>
+  </si>
+  <si>
+    <t>30150186</t>
+  </si>
+  <si>
+    <t>000007074974</t>
+  </si>
+  <si>
+    <t>30150187</t>
+  </si>
+  <si>
+    <t>000007074975</t>
+  </si>
+  <si>
+    <t>30150155</t>
+  </si>
+  <si>
+    <t>19471435.760</t>
+  </si>
+  <si>
+    <t>000007074943</t>
+  </si>
+  <si>
+    <t>30150156</t>
+  </si>
+  <si>
+    <t>000007074944</t>
+  </si>
+  <si>
+    <t>30150157</t>
+  </si>
+  <si>
+    <t>000007074945</t>
+  </si>
+  <si>
+    <t>30150158</t>
+  </si>
+  <si>
+    <t>000007074946</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4791,11 +4794,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -5218,46 +5225,46 @@
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>98</v>
@@ -5266,13 +5273,13 @@
         <v>98</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>93</v>
@@ -5281,7 +5288,7 @@
         <v>94</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>96</v>
@@ -5290,10 +5297,10 @@
         <v>96</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>96</v>
@@ -5335,25 +5342,25 @@
         <v>96</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>100</v>
@@ -5362,7 +5369,7 @@
         <v>96</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>92</v>
@@ -5374,7 +5381,7 @@
         <v>86</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>92</v>
@@ -5392,10 +5399,10 @@
         <v>92</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>92</v>
@@ -5407,10 +5414,10 @@
         <v>96</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>86</v>
@@ -5440,28 +5447,28 @@
         <v>92</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>96</v>
@@ -5470,16 +5477,16 @@
         <v>96</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>96</v>
@@ -5547,46 +5554,46 @@
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>98</v>
@@ -5595,22 +5602,22 @@
         <v>98</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>96</v>
@@ -5619,10 +5626,10 @@
         <v>96</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>96</v>
@@ -5664,25 +5671,25 @@
         <v>96</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>100</v>
@@ -5691,7 +5698,7 @@
         <v>96</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>92</v>
@@ -5703,7 +5710,7 @@
         <v>86</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>92</v>
@@ -5721,10 +5728,10 @@
         <v>92</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>92</v>
@@ -5736,10 +5743,10 @@
         <v>96</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>86</v>
@@ -5769,28 +5776,28 @@
         <v>92</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>96</v>
@@ -5799,16 +5806,16 @@
         <v>96</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>96</v>
@@ -5876,46 +5883,46 @@
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>98</v>
@@ -5924,22 +5931,22 @@
         <v>98</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>96</v>
@@ -5948,10 +5955,10 @@
         <v>96</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>96</v>
@@ -5993,25 +6000,25 @@
         <v>96</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>100</v>
@@ -6020,7 +6027,7 @@
         <v>96</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>92</v>
@@ -6032,7 +6039,7 @@
         <v>86</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>92</v>
@@ -6050,10 +6057,10 @@
         <v>92</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>92</v>
@@ -6065,10 +6072,10 @@
         <v>96</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>86</v>
@@ -6098,28 +6105,28 @@
         <v>92</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="DC4" s="1" t="s">
         <v>96</v>
@@ -6128,16 +6135,16 @@
         <v>96</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="DF4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>96</v>
@@ -6205,25 +6212,25 @@
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>113</v>
@@ -6238,13 +6245,13 @@
         <v>114</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>98</v>
@@ -6253,22 +6260,22 @@
         <v>98</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>96</v>
@@ -6277,10 +6284,10 @@
         <v>96</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>96</v>
@@ -6322,7 +6329,7 @@
         <v>96</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>98</v>
@@ -6334,13 +6341,13 @@
         <v>115</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>100</v>
@@ -6349,7 +6356,7 @@
         <v>96</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>92</v>
@@ -6361,7 +6368,7 @@
         <v>86</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>92</v>
@@ -6379,10 +6386,10 @@
         <v>92</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>92</v>
@@ -6394,10 +6401,10 @@
         <v>96</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BW5" s="1" t="s">
         <v>86</v>
@@ -6427,28 +6434,28 @@
         <v>92</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="DC5" s="1" t="s">
         <v>96</v>
@@ -6457,16 +6464,16 @@
         <v>96</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="DF5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG5" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>96</v>
@@ -6534,25 +6541,25 @@
     </row>
     <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>113</v>
@@ -6567,13 +6574,13 @@
         <v>114</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>98</v>
@@ -6582,22 +6589,22 @@
         <v>98</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>96</v>
@@ -6606,10 +6613,10 @@
         <v>96</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>96</v>
@@ -6651,7 +6658,7 @@
         <v>96</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>98</v>
@@ -6663,13 +6670,13 @@
         <v>115</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>100</v>
@@ -6678,7 +6685,7 @@
         <v>96</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>92</v>
@@ -6690,7 +6697,7 @@
         <v>86</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>92</v>
@@ -6708,10 +6715,10 @@
         <v>92</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>92</v>
@@ -6723,10 +6730,10 @@
         <v>96</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BW6" s="1" t="s">
         <v>86</v>
@@ -6756,28 +6763,28 @@
         <v>92</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="CV6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DA6" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="DC6" s="1" t="s">
         <v>96</v>
@@ -6786,16 +6793,16 @@
         <v>96</v>
       </c>
       <c r="DE6" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="DF6" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="DJ6" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="DK6" s="1" t="s">
         <v>96</v>
@@ -6863,46 +6870,46 @@
     </row>
     <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>103</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>98</v>
@@ -6911,22 +6918,22 @@
         <v>98</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>94</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>96</v>
@@ -6935,10 +6942,10 @@
         <v>96</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>96</v>
@@ -6980,25 +6987,25 @@
         <v>96</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AU7" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>100</v>
@@ -7007,7 +7014,7 @@
         <v>96</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>92</v>
@@ -7019,7 +7026,7 @@
         <v>86</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>92</v>
@@ -7037,10 +7044,10 @@
         <v>92</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>92</v>
@@ -7052,10 +7059,10 @@
         <v>96</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BW7" s="1" t="s">
         <v>86</v>
@@ -7088,25 +7095,25 @@
         <v>318</v>
       </c>
       <c r="CJ7" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="CT7" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="CV7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DA7" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="DC7" s="1" t="s">
         <v>96</v>
@@ -7115,16 +7122,16 @@
         <v>96</v>
       </c>
       <c r="DE7" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="DF7" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG7" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="DJ7" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="DK7" s="1" t="s">
         <v>96</v>
@@ -7195,25 +7202,25 @@
         <v>319</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>89</v>
@@ -7222,16 +7229,16 @@
         <v>103</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>98</v>
@@ -7240,22 +7247,22 @@
         <v>98</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>96</v>
@@ -7264,10 +7271,10 @@
         <v>96</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>96</v>
@@ -7309,25 +7316,25 @@
         <v>96</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AU8" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AX8" s="1" t="s">
         <v>100</v>
@@ -7336,7 +7343,7 @@
         <v>96</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>92</v>
@@ -7348,7 +7355,7 @@
         <v>86</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>92</v>
@@ -7366,10 +7373,10 @@
         <v>92</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BQ8" s="1" t="s">
         <v>92</v>
@@ -7381,10 +7388,10 @@
         <v>96</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BW8" s="1" t="s">
         <v>86</v>
@@ -7414,28 +7421,28 @@
         <v>92</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CL8" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR8" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="CT8" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="CV8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DA8" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="DC8" s="1" t="s">
         <v>96</v>
@@ -7444,16 +7451,16 @@
         <v>96</v>
       </c>
       <c r="DE8" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="DF8" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG8" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="DJ8" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="DK8" s="1" t="s">
         <v>96</v>
@@ -7521,25 +7528,25 @@
     </row>
     <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>136</v>
@@ -7554,13 +7561,13 @@
         <v>137</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>98</v>
@@ -7569,22 +7576,22 @@
         <v>98</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>94</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>96</v>
@@ -7593,10 +7600,10 @@
         <v>96</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>96</v>
@@ -7638,7 +7645,7 @@
         <v>96</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ9" s="1" t="s">
         <v>98</v>
@@ -7650,13 +7657,13 @@
         <v>89</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AU9" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AX9" s="1" t="s">
         <v>100</v>
@@ -7665,7 +7672,7 @@
         <v>96</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>92</v>
@@ -7677,7 +7684,7 @@
         <v>86</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>92</v>
@@ -7695,10 +7702,10 @@
         <v>92</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>92</v>
@@ -7710,10 +7717,10 @@
         <v>96</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BW9" s="1" t="s">
         <v>86</v>
@@ -7743,28 +7750,28 @@
         <v>92</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CK9" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CL9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR9" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="CT9" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="CV9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DA9" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="DC9" s="1" t="s">
         <v>96</v>
@@ -7773,16 +7780,16 @@
         <v>96</v>
       </c>
       <c r="DE9" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="DF9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG9" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="DJ9" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="DK9" s="1" t="s">
         <v>96</v>
@@ -7850,25 +7857,25 @@
     </row>
     <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>136</v>
@@ -7883,13 +7890,13 @@
         <v>137</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>98</v>
@@ -7898,22 +7905,22 @@
         <v>98</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>96</v>
@@ -7922,10 +7929,10 @@
         <v>96</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>96</v>
@@ -7967,7 +7974,7 @@
         <v>96</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ10" s="1" t="s">
         <v>98</v>
@@ -7979,13 +7986,13 @@
         <v>89</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AU10" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AX10" s="1" t="s">
         <v>100</v>
@@ -7994,7 +8001,7 @@
         <v>96</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>92</v>
@@ -8006,7 +8013,7 @@
         <v>86</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>92</v>
@@ -8024,10 +8031,10 @@
         <v>92</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="BP10" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BQ10" s="1" t="s">
         <v>92</v>
@@ -8039,10 +8046,10 @@
         <v>96</v>
       </c>
       <c r="BT10" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BV10" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BW10" s="1" t="s">
         <v>86</v>
@@ -8072,28 +8079,28 @@
         <v>92</v>
       </c>
       <c r="CH10" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="CJ10" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CK10" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CL10" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR10" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="CT10" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="CV10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DA10" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="DC10" s="1" t="s">
         <v>96</v>
@@ -8102,16 +8109,16 @@
         <v>96</v>
       </c>
       <c r="DE10" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="DF10" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG10" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="DJ10" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="DK10" s="1" t="s">
         <v>96</v>
@@ -8179,25 +8186,25 @@
     </row>
     <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>136</v>
@@ -8212,13 +8219,13 @@
         <v>137</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>98</v>
@@ -8227,22 +8234,22 @@
         <v>98</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>94</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>96</v>
@@ -8251,7 +8258,7 @@
         <v>96</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>107</v>
@@ -8296,7 +8303,7 @@
         <v>96</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AQ11" s="1" t="s">
         <v>98</v>
@@ -8308,13 +8315,13 @@
         <v>89</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AX11" s="1" t="s">
         <v>100</v>
@@ -8323,7 +8330,7 @@
         <v>96</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>92</v>
@@ -8335,7 +8342,7 @@
         <v>86</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>92</v>
@@ -8353,10 +8360,10 @@
         <v>92</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="BP11" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BQ11" s="1" t="s">
         <v>92</v>
@@ -8368,10 +8375,10 @@
         <v>96</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BV11" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BW11" s="1" t="s">
         <v>86</v>
@@ -8401,28 +8408,28 @@
         <v>92</v>
       </c>
       <c r="CH11" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="CJ11" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CK11" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CL11" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR11" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="CT11" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="CV11" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DA11" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="DC11" s="1" t="s">
         <v>96</v>
@@ -8431,16 +8438,16 @@
         <v>96</v>
       </c>
       <c r="DE11" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="DF11" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG11" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="DJ11" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="DK11" s="1" t="s">
         <v>96</v>
@@ -8529,5 +8536,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>